--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H2">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I2">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J2">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.032709</v>
+        <v>0.721509</v>
       </c>
       <c r="N2">
-        <v>0.09812699999999999</v>
+        <v>1.443018</v>
       </c>
       <c r="O2">
-        <v>0.006659324197390493</v>
+        <v>0.2412438867811813</v>
       </c>
       <c r="P2">
-        <v>0.006914300080637592</v>
+        <v>0.1934494256715044</v>
       </c>
       <c r="Q2">
-        <v>6.545434198862999</v>
+        <v>170.335491925047</v>
       </c>
       <c r="R2">
-        <v>39.27260519317799</v>
+        <v>681.341967700188</v>
       </c>
       <c r="S2">
-        <v>0.001501324765132997</v>
+        <v>0.08589348082321914</v>
       </c>
       <c r="T2">
-        <v>0.001256726314782129</v>
+        <v>0.05654631572402334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H3">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I3">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J3">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.571286666666666</v>
+        <v>0.032709</v>
       </c>
       <c r="N3">
-        <v>4.713859999999999</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O3">
-        <v>0.3199030028545777</v>
+        <v>0.01093658747531307</v>
       </c>
       <c r="P3">
-        <v>0.3321516257310864</v>
+        <v>0.01315479903429321</v>
       </c>
       <c r="Q3">
-        <v>314.4319142810066</v>
+        <v>7.722015394647001</v>
       </c>
       <c r="R3">
-        <v>1886.59148568604</v>
+        <v>46.33209236788201</v>
       </c>
       <c r="S3">
-        <v>0.07212117722308672</v>
+        <v>0.003893908273142365</v>
       </c>
       <c r="T3">
-        <v>0.06037106918787782</v>
+        <v>0.00384521906383097</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H4">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I4">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J4">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.543387</v>
+        <v>0.791444</v>
       </c>
       <c r="N4">
-        <v>1.086774</v>
+        <v>1.582888</v>
       </c>
       <c r="O4">
-        <v>0.1106298021231902</v>
+        <v>0.2646273667128827</v>
       </c>
       <c r="P4">
-        <v>0.07657710472994016</v>
+        <v>0.2122002459444833</v>
       </c>
       <c r="Q4">
-        <v>108.737774099409</v>
+        <v>186.845906386652</v>
       </c>
       <c r="R4">
-        <v>434.951096397636</v>
+        <v>747.3836255466081</v>
       </c>
       <c r="S4">
-        <v>0.02494115870712416</v>
+        <v>0.0942190326616187</v>
       </c>
       <c r="T4">
-        <v>0.01391846774099925</v>
+        <v>0.06202728212937599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H5">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I5">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J5">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3317826666666666</v>
+        <v>1.364433666666667</v>
       </c>
       <c r="N5">
-        <v>0.9953479999999999</v>
+        <v>4.093301</v>
       </c>
       <c r="O5">
-        <v>0.06754863616766264</v>
+        <v>0.4562123008885065</v>
       </c>
       <c r="P5">
-        <v>0.07013497566075051</v>
+        <v>0.5487434859098049</v>
       </c>
       <c r="Q5">
-        <v>66.39339671007866</v>
+        <v>322.1186150287277</v>
       </c>
       <c r="R5">
-        <v>398.360380260472</v>
+        <v>1932.711690172366</v>
       </c>
       <c r="S5">
-        <v>0.01522863842087905</v>
+        <v>0.1624317326358894</v>
       </c>
       <c r="T5">
-        <v>0.0127475620773667</v>
+        <v>0.1604006954171469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>200.111107</v>
+        <v>236.082283</v>
       </c>
       <c r="H6">
-        <v>400.222214</v>
+        <v>472.164566</v>
       </c>
       <c r="I6">
-        <v>0.2254470154375879</v>
+        <v>0.356044175747874</v>
       </c>
       <c r="J6">
-        <v>0.1817575604364342</v>
+        <v>0.2923054205394457</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.432594333333333</v>
+        <v>0.080691</v>
       </c>
       <c r="N6">
-        <v>7.297783</v>
+        <v>0.242073</v>
       </c>
       <c r="O6">
-        <v>0.4952592346571789</v>
+        <v>0.02697985814211646</v>
       </c>
       <c r="P6">
-        <v>0.5142219937975853</v>
+        <v>0.03245204343991419</v>
       </c>
       <c r="Q6">
-        <v>486.7891449252604</v>
+        <v>19.049715497553</v>
       </c>
       <c r="R6">
-        <v>2920.734869551562</v>
+        <v>114.298292985318</v>
       </c>
       <c r="S6">
-        <v>0.111654716321365</v>
+        <v>0.009606021354004421</v>
       </c>
       <c r="T6">
-        <v>0.0934637351154083</v>
+        <v>0.009485908205068477</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>352.655433</v>
       </c>
       <c r="I7">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J7">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.032709</v>
+        <v>0.721509</v>
       </c>
       <c r="N7">
-        <v>0.09812699999999999</v>
+        <v>1.443018</v>
       </c>
       <c r="O7">
-        <v>0.006659324197390493</v>
+        <v>0.2412438867811813</v>
       </c>
       <c r="P7">
-        <v>0.006914300080637592</v>
+        <v>0.1934494256715044</v>
       </c>
       <c r="Q7">
-        <v>3.845002185998999</v>
+        <v>84.81468960279899</v>
       </c>
       <c r="R7">
-        <v>34.605019673991</v>
+        <v>508.888137616794</v>
       </c>
       <c r="S7">
-        <v>0.0008819272837291011</v>
+        <v>0.04276870799264161</v>
       </c>
       <c r="T7">
-        <v>0.001107363227724251</v>
+        <v>0.04223393048136983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>352.655433</v>
       </c>
       <c r="I8">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J8">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.571286666666666</v>
+        <v>0.032709</v>
       </c>
       <c r="N8">
-        <v>4.713859999999999</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O8">
-        <v>0.3199030028545777</v>
+        <v>0.01093658747531307</v>
       </c>
       <c r="P8">
-        <v>0.3321516257310864</v>
+        <v>0.01315479903429321</v>
       </c>
       <c r="Q8">
-        <v>184.70759326682</v>
+        <v>3.845002185999</v>
       </c>
       <c r="R8">
-        <v>1662.36833940138</v>
+        <v>34.605019673991</v>
       </c>
       <c r="S8">
-        <v>0.0423663389860004</v>
+        <v>0.001938883187501909</v>
       </c>
       <c r="T8">
-        <v>0.05319591167201931</v>
+        <v>0.002871959252306886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>352.655433</v>
       </c>
       <c r="I9">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J9">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.543387</v>
+        <v>0.791444</v>
       </c>
       <c r="N9">
-        <v>1.086774</v>
+        <v>1.582888</v>
       </c>
       <c r="O9">
-        <v>0.1106298021231902</v>
+        <v>0.2646273667128827</v>
       </c>
       <c r="P9">
-        <v>0.07657710472994016</v>
+        <v>0.2122002459444833</v>
       </c>
       <c r="Q9">
-        <v>63.876125923857</v>
+        <v>93.035675505084</v>
       </c>
       <c r="R9">
-        <v>383.256755543142</v>
+        <v>558.214053030504</v>
       </c>
       <c r="S9">
-        <v>0.01465125258869746</v>
+        <v>0.04691422744349447</v>
       </c>
       <c r="T9">
-        <v>0.01226424495242691</v>
+        <v>0.0463276145909438</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>352.655433</v>
       </c>
       <c r="I10">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J10">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3317826666666666</v>
+        <v>1.364433666666667</v>
       </c>
       <c r="N10">
-        <v>0.9953479999999999</v>
+        <v>4.093301</v>
       </c>
       <c r="O10">
-        <v>0.06754863616766264</v>
+        <v>0.4562123008885065</v>
       </c>
       <c r="P10">
-        <v>0.07013497566075051</v>
+        <v>0.5487434859098049</v>
       </c>
       <c r="Q10">
-        <v>39.00165332507599</v>
+        <v>160.391648506037</v>
       </c>
       <c r="R10">
-        <v>351.014879925684</v>
+        <v>1443.524836554333</v>
       </c>
       <c r="S10">
-        <v>0.008945800421955153</v>
+        <v>0.08087919217223344</v>
       </c>
       <c r="T10">
-        <v>0.01123250251193737</v>
+        <v>0.1198018249760721</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,40 +1107,40 @@
         <v>352.655433</v>
       </c>
       <c r="I11">
-        <v>0.1324349524948329</v>
+        <v>0.1772841109604352</v>
       </c>
       <c r="J11">
-        <v>0.1601555059528365</v>
+        <v>0.2183202681257223</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.432594333333333</v>
+        <v>0.080691</v>
       </c>
       <c r="N11">
-        <v>7.297783</v>
+        <v>0.242073</v>
       </c>
       <c r="O11">
-        <v>0.4952592346571789</v>
+        <v>0.02697985814211646</v>
       </c>
       <c r="P11">
-        <v>0.5142219937975853</v>
+        <v>0.03245204343991419</v>
       </c>
       <c r="Q11">
-        <v>285.955869311671</v>
+        <v>9.485373181401</v>
       </c>
       <c r="R11">
-        <v>2573.602823805039</v>
+        <v>85.368358632609</v>
       </c>
       <c r="S11">
-        <v>0.06558963321445077</v>
+        <v>0.004783100164563775</v>
       </c>
       <c r="T11">
-        <v>0.0823554835887286</v>
+        <v>0.007084938825029653</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H12">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I12">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J12">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.032709</v>
+        <v>0.721509</v>
       </c>
       <c r="N12">
-        <v>0.09812699999999999</v>
+        <v>1.443018</v>
       </c>
       <c r="O12">
-        <v>0.006659324197390493</v>
+        <v>0.2412438867811813</v>
       </c>
       <c r="P12">
-        <v>0.006914300080637592</v>
+        <v>0.1934494256715044</v>
       </c>
       <c r="Q12">
-        <v>2.701426246531</v>
+        <v>47.317431321866</v>
       </c>
       <c r="R12">
-        <v>24.312836218779</v>
+        <v>283.904587931196</v>
       </c>
       <c r="S12">
-        <v>0.0006196255285557347</v>
+        <v>0.02386031727103056</v>
       </c>
       <c r="T12">
-        <v>0.0007780125844168649</v>
+        <v>0.02356196921032805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H13">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I13">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J13">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.571286666666666</v>
+        <v>0.032709</v>
       </c>
       <c r="N13">
-        <v>4.713859999999999</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O13">
-        <v>0.3199030028545777</v>
+        <v>0.01093658747531307</v>
       </c>
       <c r="P13">
-        <v>0.3321516257310864</v>
+        <v>0.01315479903429321</v>
       </c>
       <c r="Q13">
-        <v>129.7720823674689</v>
+        <v>2.145095710666</v>
       </c>
       <c r="R13">
-        <v>1167.94874130722</v>
+        <v>19.305861395994</v>
       </c>
       <c r="S13">
-        <v>0.02976579324791073</v>
+        <v>0.001081687293738732</v>
       </c>
       <c r="T13">
-        <v>0.03737444741181614</v>
+        <v>0.001602242905287294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H14">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I14">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J14">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.543387</v>
+        <v>0.791444</v>
       </c>
       <c r="N14">
-        <v>1.086774</v>
+        <v>1.582888</v>
       </c>
       <c r="O14">
-        <v>0.1106298021231902</v>
+        <v>0.2646273667128827</v>
       </c>
       <c r="P14">
-        <v>0.07657710472994016</v>
+        <v>0.2122002459444833</v>
       </c>
       <c r="Q14">
-        <v>44.878165147933</v>
+        <v>51.90385305672267</v>
       </c>
       <c r="R14">
-        <v>269.268990887598</v>
+        <v>311.423118340336</v>
       </c>
       <c r="S14">
-        <v>0.01029369461265447</v>
+        <v>0.02617306914016805</v>
       </c>
       <c r="T14">
-        <v>0.008616627925209716</v>
+        <v>0.02584580256060406</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H15">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I15">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J15">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3317826666666666</v>
+        <v>1.364433666666667</v>
       </c>
       <c r="N15">
-        <v>0.9953479999999999</v>
+        <v>4.093301</v>
       </c>
       <c r="O15">
-        <v>0.06754863616766264</v>
+        <v>0.4562123008885065</v>
       </c>
       <c r="P15">
-        <v>0.07013497566075051</v>
+        <v>0.5487434859098049</v>
       </c>
       <c r="Q15">
-        <v>27.40182836153289</v>
+        <v>89.48120718624691</v>
       </c>
       <c r="R15">
-        <v>246.6164552537959</v>
+        <v>805.3308646762222</v>
       </c>
       <c r="S15">
-        <v>0.006285151187714833</v>
+        <v>0.04512184904407599</v>
       </c>
       <c r="T15">
-        <v>0.007891745084168043</v>
+        <v>0.06683647198482973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.58969233333333</v>
+        <v>65.58120733333334</v>
       </c>
       <c r="H16">
-        <v>247.769077</v>
+        <v>196.743622</v>
       </c>
       <c r="I16">
-        <v>0.09304630773172745</v>
+        <v>0.09890537575641412</v>
       </c>
       <c r="J16">
-        <v>0.1125222474210465</v>
+        <v>0.1217991168934175</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.432594333333333</v>
+        <v>0.080691</v>
       </c>
       <c r="N16">
-        <v>7.297783</v>
+        <v>0.242073</v>
       </c>
       <c r="O16">
-        <v>0.4952592346571789</v>
+        <v>0.02697985814211646</v>
       </c>
       <c r="P16">
-        <v>0.5142219937975853</v>
+        <v>0.03245204343991419</v>
       </c>
       <c r="Q16">
-        <v>200.9072175618101</v>
+        <v>5.291813200934</v>
       </c>
       <c r="R16">
-        <v>1808.164958056291</v>
+        <v>47.626318808406</v>
       </c>
       <c r="S16">
-        <v>0.04608204315489168</v>
+        <v>0.002668453007400777</v>
       </c>
       <c r="T16">
-        <v>0.05786141441543573</v>
+        <v>0.003952630232368371</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H17">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I17">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J17">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.032709</v>
+        <v>0.721509</v>
       </c>
       <c r="N17">
-        <v>0.09812699999999999</v>
+        <v>1.443018</v>
       </c>
       <c r="O17">
-        <v>0.006659324197390493</v>
+        <v>0.2412438867811813</v>
       </c>
       <c r="P17">
-        <v>0.006914300080637592</v>
+        <v>0.1934494256715044</v>
       </c>
       <c r="Q17">
-        <v>8.530188123704997</v>
+        <v>99.43543636365149</v>
       </c>
       <c r="R17">
-        <v>51.18112874222999</v>
+        <v>397.741745454606</v>
       </c>
       <c r="S17">
-        <v>0.001956567324989121</v>
+        <v>0.0501413748240324</v>
       </c>
       <c r="T17">
-        <v>0.001637799962447754</v>
+        <v>0.03300960660183044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H18">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I18">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J18">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.571286666666666</v>
+        <v>0.032709</v>
       </c>
       <c r="N18">
-        <v>4.713859999999999</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O18">
-        <v>0.3199030028545777</v>
+        <v>0.01093658747531307</v>
       </c>
       <c r="P18">
-        <v>0.3321516257310864</v>
+        <v>0.01315479903429321</v>
       </c>
       <c r="Q18">
-        <v>409.7762347652333</v>
+        <v>4.5078213688515</v>
       </c>
       <c r="R18">
-        <v>2458.657408591399</v>
+        <v>27.046928213109</v>
       </c>
       <c r="S18">
-        <v>0.0939902824968991</v>
+        <v>0.002273116799817155</v>
       </c>
       <c r="T18">
-        <v>0.0786772216717516</v>
+        <v>0.002244693875625818</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H19">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I19">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J19">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.543387</v>
+        <v>0.791444</v>
       </c>
       <c r="N19">
-        <v>1.086774</v>
+        <v>1.582888</v>
       </c>
       <c r="O19">
-        <v>0.1106298021231902</v>
+        <v>0.2646273667128827</v>
       </c>
       <c r="P19">
-        <v>0.07657710472994016</v>
+        <v>0.2122002459444833</v>
       </c>
       <c r="Q19">
-        <v>141.710028859815</v>
+        <v>109.073593672974</v>
       </c>
       <c r="R19">
-        <v>566.8401154392599</v>
+        <v>436.294374691896</v>
       </c>
       <c r="S19">
-        <v>0.03250399734091117</v>
+        <v>0.05500151800771924</v>
       </c>
       <c r="T19">
-        <v>0.01813892625260321</v>
+        <v>0.03620918808688332</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H20">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I20">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J20">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3317826666666666</v>
+        <v>1.364433666666667</v>
       </c>
       <c r="N20">
-        <v>0.9953479999999999</v>
+        <v>4.093301</v>
       </c>
       <c r="O20">
-        <v>0.06754863616766264</v>
+        <v>0.4562123008885065</v>
       </c>
       <c r="P20">
-        <v>0.07013497566075051</v>
+        <v>0.5487434859098049</v>
       </c>
       <c r="Q20">
-        <v>86.5256829267533</v>
+        <v>188.0406994704945</v>
       </c>
       <c r="R20">
-        <v>519.1540975605199</v>
+        <v>1128.244196822967</v>
       </c>
       <c r="S20">
-        <v>0.01984637636729209</v>
+        <v>0.09482151976324928</v>
       </c>
       <c r="T20">
-        <v>0.01661297010020124</v>
+        <v>0.09363587683097453</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>260.790245</v>
+        <v>137.8159335</v>
       </c>
       <c r="H21">
-        <v>521.5804899999999</v>
+        <v>275.631867</v>
       </c>
       <c r="I21">
-        <v>0.2938086909413146</v>
+        <v>0.2078451623916705</v>
       </c>
       <c r="J21">
-        <v>0.236871403229107</v>
+        <v>0.1706368808656166</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.432594333333333</v>
+        <v>0.080691</v>
       </c>
       <c r="N21">
-        <v>7.297783</v>
+        <v>0.242073</v>
       </c>
       <c r="O21">
-        <v>0.4952592346571789</v>
+        <v>0.02697985814211646</v>
       </c>
       <c r="P21">
-        <v>0.5142219937975853</v>
+        <v>0.03245204343991419</v>
       </c>
       <c r="Q21">
-        <v>634.3968721756116</v>
+        <v>11.1205054900485</v>
       </c>
       <c r="R21">
-        <v>3806.381233053669</v>
+        <v>66.72303294029099</v>
       </c>
       <c r="S21">
-        <v>0.1455114674112231</v>
+        <v>0.005607632996852428</v>
       </c>
       <c r="T21">
-        <v>0.1218044852421032</v>
+        <v>0.005537515470302451</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H22">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I22">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J22">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.032709</v>
+        <v>0.721509</v>
       </c>
       <c r="N22">
-        <v>0.09812699999999999</v>
+        <v>1.443018</v>
       </c>
       <c r="O22">
-        <v>0.006659324197390493</v>
+        <v>0.2412438867811813</v>
       </c>
       <c r="P22">
-        <v>0.006914300080637592</v>
+        <v>0.1934494256715044</v>
       </c>
       <c r="Q22">
-        <v>4.005990312565999</v>
+        <v>28.701748993009</v>
       </c>
       <c r="R22">
-        <v>36.053912813094</v>
+        <v>172.210493958054</v>
       </c>
       <c r="S22">
-        <v>0.0009188530939907622</v>
+        <v>0.01447316175191882</v>
       </c>
       <c r="T22">
-        <v>0.001153727916958932</v>
+        <v>0.01429219015410351</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H23">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I23">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J23">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>1.571286666666666</v>
+        <v>0.032709</v>
       </c>
       <c r="N23">
-        <v>4.713859999999999</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O23">
-        <v>0.3199030028545777</v>
+        <v>0.01093658747531307</v>
       </c>
       <c r="P23">
-        <v>0.3321516257310864</v>
+        <v>0.01315479903429321</v>
       </c>
       <c r="Q23">
-        <v>192.4411985976577</v>
+        <v>1.301169504209</v>
       </c>
       <c r="R23">
-        <v>1731.97078737892</v>
+        <v>11.710525537881</v>
       </c>
       <c r="S23">
-        <v>0.04414019429554857</v>
+        <v>0.0006561285413536252</v>
       </c>
       <c r="T23">
-        <v>0.05542319523307584</v>
+        <v>0.0009718865206475005</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H24">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I24">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J24">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.543387</v>
+        <v>0.791444</v>
       </c>
       <c r="N24">
-        <v>1.086774</v>
+        <v>1.582888</v>
       </c>
       <c r="O24">
-        <v>0.1106298021231902</v>
+        <v>0.2646273667128827</v>
       </c>
       <c r="P24">
-        <v>0.07657710472994016</v>
+        <v>0.2122002459444833</v>
       </c>
       <c r="Q24">
-        <v>66.55058418093799</v>
+        <v>31.48377501877734</v>
       </c>
       <c r="R24">
-        <v>399.303505085628</v>
+        <v>188.902650112664</v>
       </c>
       <c r="S24">
-        <v>0.01526469247559871</v>
+        <v>0.01587602792146132</v>
       </c>
       <c r="T24">
-        <v>0.01277774214258182</v>
+        <v>0.01567751496422677</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H25">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I25">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J25">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3317826666666666</v>
+        <v>1.364433666666667</v>
       </c>
       <c r="N25">
-        <v>0.9953479999999999</v>
+        <v>4.093301</v>
       </c>
       <c r="O25">
-        <v>0.06754863616766264</v>
+        <v>0.4562123008885065</v>
       </c>
       <c r="P25">
-        <v>0.07013497566075051</v>
+        <v>0.5487434859098049</v>
       </c>
       <c r="Q25">
-        <v>40.63463109676177</v>
+        <v>54.27740003004479</v>
       </c>
       <c r="R25">
-        <v>365.711679870856</v>
+        <v>488.4966002704031</v>
       </c>
       <c r="S25">
-        <v>0.009320356164944582</v>
+        <v>0.02736995540933011</v>
       </c>
       <c r="T25">
-        <v>0.01170280121362356</v>
+        <v>0.04054158454709646</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>122.4736406666667</v>
+        <v>39.78016766666667</v>
       </c>
       <c r="H26">
-        <v>367.420922</v>
+        <v>119.340503</v>
       </c>
       <c r="I26">
-        <v>0.1379799311093492</v>
+        <v>0.05999390055030331</v>
       </c>
       <c r="J26">
-        <v>0.166861128892824</v>
+        <v>0.07388075774581522</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.432594333333333</v>
+        <v>0.080691</v>
       </c>
       <c r="N26">
-        <v>7.297783</v>
+        <v>0.242073</v>
       </c>
       <c r="O26">
-        <v>0.4952592346571789</v>
+        <v>0.02697985814211646</v>
       </c>
       <c r="P26">
-        <v>0.5142219937975853</v>
+        <v>0.03245204343991419</v>
       </c>
       <c r="Q26">
-        <v>297.9286842684362</v>
+        <v>3.209901509191</v>
       </c>
       <c r="R26">
-        <v>2681.358158415926</v>
+        <v>28.889113582719</v>
       </c>
       <c r="S26">
-        <v>0.06833583507926654</v>
+        <v>0.001618626926239426</v>
       </c>
       <c r="T26">
-        <v>0.08580366238658381</v>
+        <v>0.002397581559740972</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,46 +2093,46 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H27">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I27">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J27">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M27">
-        <v>0.032709</v>
+        <v>0.721509</v>
       </c>
       <c r="N27">
-        <v>0.09812699999999999</v>
+        <v>1.443018</v>
       </c>
       <c r="O27">
-        <v>0.006659324197390493</v>
+        <v>0.2412438867811813</v>
       </c>
       <c r="P27">
-        <v>0.006914300080637592</v>
+        <v>0.1934494256715044</v>
       </c>
       <c r="Q27">
-        <v>3.405096435436</v>
+        <v>47.80631908618199</v>
       </c>
       <c r="R27">
-        <v>30.645867918924</v>
+        <v>286.837914517092</v>
       </c>
       <c r="S27">
-        <v>0.0007810262009927755</v>
+        <v>0.02410684411833881</v>
       </c>
       <c r="T27">
-        <v>0.0009806700743076593</v>
+        <v>0.02380541349984924</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H28">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I28">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J28">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>1.571286666666666</v>
+        <v>0.032709</v>
       </c>
       <c r="N28">
-        <v>4.713859999999999</v>
+        <v>0.09812700000000001</v>
       </c>
       <c r="O28">
-        <v>0.3199030028545777</v>
+        <v>0.01093658747531307</v>
       </c>
       <c r="P28">
-        <v>0.3321516257310864</v>
+        <v>0.01315479903429321</v>
       </c>
       <c r="Q28">
-        <v>163.5752431353689</v>
+        <v>2.167259023782</v>
       </c>
       <c r="R28">
-        <v>1472.17718821832</v>
+        <v>19.505331214038</v>
       </c>
       <c r="S28">
-        <v>0.03751921660513217</v>
+        <v>0.001092863379759288</v>
       </c>
       <c r="T28">
-        <v>0.04710978055454567</v>
+        <v>0.001618797416594739</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H29">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I29">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J29">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.543387</v>
+        <v>0.791444</v>
       </c>
       <c r="N29">
-        <v>1.086774</v>
+        <v>1.582888</v>
       </c>
       <c r="O29">
-        <v>0.1106298021231902</v>
+        <v>0.2646273667128827</v>
       </c>
       <c r="P29">
-        <v>0.07657710472994016</v>
+        <v>0.2122002459444833</v>
       </c>
       <c r="Q29">
-        <v>56.568074131348</v>
+        <v>52.440128124312</v>
       </c>
       <c r="R29">
-        <v>339.408444788088</v>
+        <v>314.640768745872</v>
       </c>
       <c r="S29">
-        <v>0.0129750063982042</v>
+        <v>0.02644349153842093</v>
       </c>
       <c r="T29">
-        <v>0.01086109571611923</v>
+        <v>0.02611284361244931</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H30">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I30">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J30">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3317826666666666</v>
+        <v>1.364433666666667</v>
       </c>
       <c r="N30">
-        <v>0.9953479999999999</v>
+        <v>4.093301</v>
       </c>
       <c r="O30">
-        <v>0.06754863616766264</v>
+        <v>0.4562123008885065</v>
       </c>
       <c r="P30">
-        <v>0.07013497566075051</v>
+        <v>0.5487434859098049</v>
       </c>
       <c r="Q30">
-        <v>34.53948379975289</v>
+        <v>90.40573470406601</v>
       </c>
       <c r="R30">
-        <v>310.855354197776</v>
+        <v>813.6516123365941</v>
       </c>
       <c r="S30">
-        <v>0.007922313604876914</v>
+        <v>0.04558805186372838</v>
       </c>
       <c r="T30">
-        <v>0.009947394673453586</v>
+        <v>0.06752703215368513</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>104.1027373333333</v>
+        <v>66.258798</v>
       </c>
       <c r="H31">
-        <v>312.308212</v>
+        <v>198.776394</v>
       </c>
       <c r="I31">
-        <v>0.1172831022851878</v>
+        <v>0.09992727459330304</v>
       </c>
       <c r="J31">
-        <v>0.1418321540677518</v>
+        <v>0.1230575558299827</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>2.432594333333333</v>
+        <v>0.080691</v>
       </c>
       <c r="N31">
-        <v>7.297783</v>
+        <v>0.242073</v>
       </c>
       <c r="O31">
-        <v>0.4952592346571789</v>
+        <v>0.02697985814211646</v>
       </c>
       <c r="P31">
-        <v>0.5142219937975853</v>
+        <v>0.03245204343991419</v>
       </c>
       <c r="Q31">
-        <v>253.2397289215551</v>
+        <v>5.346488669418</v>
       </c>
       <c r="R31">
-        <v>2279.157560293996</v>
+        <v>48.118398024762</v>
       </c>
       <c r="S31">
-        <v>0.05808553947598175</v>
+        <v>0.002696023693055634</v>
       </c>
       <c r="T31">
-        <v>0.07293321304932561</v>
+        <v>0.003993469147404264</v>
       </c>
     </row>
   </sheetData>
